--- a/DMS/Templates/Monitor_Store_Problem_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Problem_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DMS.BE\DMS\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D3283-A592-4511-95D0-59AA14429D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +72,6 @@
     <t>{{MonitorStoreProblems.STT}}</t>
   </si>
   <si>
-    <t>{{MonitorStoreProblems.Organization.Name}</t>
-  </si>
-  <si>
     <t>{{MonitorStoreProblems.Creator.Username}}</t>
   </si>
   <si>
@@ -96,12 +94,15 @@
   </si>
   <si>
     <t>{{MonitorStoreProblems.ProblemStatus.Name}}</t>
+  </si>
+  <si>
+    <t>{{MonitorStoreProblems.Organization.Name}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -471,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>7</v>
@@ -548,31 +549,31 @@
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DMS/Templates/Monitor_Store_Problem_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Problem_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D3283-A592-4511-95D0-59AA14429D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386FB5EB-F15F-4AA9-8C2A-88CB81D4E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -60,43 +60,40 @@
     <t>BÁO CÁO GIÁM SÁT VẤN ĐỀ</t>
   </si>
   <si>
-    <t>Đơn vị quản lý</t>
-  </si>
-  <si>
     <t>{{Start}}</t>
   </si>
   <si>
     <t>{{End}}</t>
   </si>
   <si>
-    <t>{{MonitorStoreProblems.STT}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.Creator.Username}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.Creator.DisplayName}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.NoteAtDisplay}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.Store.Name}}</t>
-  </si>
-  <si>
     <t>Đại lý</t>
   </si>
   <si>
-    <t>{{MonitorStoreProblems.Content}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.ProblemType.Name}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.ProblemStatus.Name}}</t>
-  </si>
-  <si>
-    <t>{{MonitorStoreProblems.Organization.Name}}</t>
+    <t>{{Exports.OrganizationName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.STT}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.Creator.Username}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.Creator.DisplayName}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.NoteAtDisplay}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.Store.Name}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.Content}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.ProblemType.Name}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.ProblemStatus.Name}}</t>
   </si>
 </sst>
 </file>
@@ -147,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,11 +167,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,6 +227,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,110 +516,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DMS/Templates/Monitor_Store_Problem_Report.xlsx
+++ b/DMS/Templates/Monitor_Store_Problem_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rang Dong\DMS.BE\DMS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386FB5EB-F15F-4AA9-8C2A-88CB81D4E9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E10E3EA-002D-42BB-9B4F-766324F2F0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2835" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CÔNG TY CỔ PHẦN BÓNG ĐÈN PHÍCH NƯỚC RẠNG ĐÔNG</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>{{Exports.MonitorStoreProblems.ProblemStatus.Name}}</t>
+  </si>
+  <si>
+    <t>{{Exports.MonitorStoreProblems.Code}}</t>
+  </si>
+  <si>
+    <t>Mã vấn đề</t>
   </si>
 </sst>
 </file>
@@ -516,76 +522,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -595,37 +606,41 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
